--- a/a111.xlsx
+++ b/a111.xlsx
@@ -1,37 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedansh0739/Documents/zorexbackend/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA990D1E-1F1E-0145-97FC-088504314198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>ground_truth_context</t>
+  </si>
+  <si>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>question_type</t>
+  </si>
+  <si>
+    <t>episode_done</t>
+  </si>
+  <si>
+    <t>What factors are considered when determining whether a preliminary issue should be ordered?</t>
+  </si>
+  <si>
+    <t>["48.Factor (e) was whether the determination of preliminary issue would unreasonably fetter either the parties or the court in achieving a just result.\n49.Factor (f) was the risk that an order will increase the costs or delay the trial and the prospects of an order may assist settlement.\n50.Factor (g) is the point that the more likely it is that the issue will have to be determined by the court the more appropriate it is to have it determined as a preliminary issue.\n51.Factor (h): the risk that the determination may lose its effect by subsequent amendments to the statement of case.\n52.Factor (i): whether it is just and right to order the determination of a preliminary issue.\n53.It seems to me, bearing all those factors in mind, irrespective of whether this was a case in the High Court or the PCC, the preliminary issue which has been proposed by the claimant would be appropriate.\n54.The other factor I bear in mind which is extremely important is access to justice.\n55.The other issues in Mr. Abrahams's list may never arise or they may need to go to the High Court rather than the PCC.\n56.What happens to the costs cap in a preliminary issue case?"]</t>
+  </si>
+  <si>
+    <t>['The factors considered when determining whether a preliminary issue should be ordered include: \n- Whether the determination of the preliminary issue would unreasonably fetter either the parties or the court in achieving a just result.\n- The risk that an order will increase the costs or delay the trial and the prospects of an order may assist settlement.\n- The likelihood that the issue will have to be determined by the court.\n- The risk that the determination may lose its effect by subsequent amendments to the statement of case.\n- Whether it is just and right to order the determination of a preliminary issue.\n- The importance of access to justice.\n- The possibility that other issues may arise or need to go to a different court.']</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>What are the four pre-conditions for granting a search order, taking into account the potential harm to the respondent's business and the need for a strong prima facie case?</t>
+  </si>
+  <si>
+    <t>['- "There are four pre-conditions identified by Mr Penny (and I think that this is equally uncontroversial) which are established by the authorities (in particular Anton Piller and Lock International plc v Beswick) before the Court will ordinarily exercise its power to grant a search order."\n- "a. There must be an extremely strong prima facie case (a requirement which must be viewed with some flexibility)."\n- "b. The damage, potential or actual, must be very serious for the applicant."\n- "c. There must be clear evidence that the defendants have in their possession incriminating documents or things and that there is a real possibility that the defendants may destroy such material before an on notice application is made."\n- "d. The harm likely to be caused by the execution of the search order on the respondent and his business affairs must not be out of proportion to the legitimate object of the order."']</t>
+  </si>
+  <si>
+    <t>["The four pre-conditions for granting a search order, taking into account the potential harm to the respondent's business and the need for a strong prima facie case, are:\n\na. There must be an extremely strong prima facie case.\nb. The damage, potential or actual, must be very serious for the applicant.\nc. There must be clear evidence that the defendants have incriminating documents or things in their possession, and there is a real possibility of them destroying such material before an on notice application is made.\nd. The harm likely to be caused by the execution of the search order on the respondent and their business affairs must not be out of proportion to the legitimate object of the order."]</t>
+  </si>
+  <si>
+    <t>conditional</t>
+  </si>
+  <si>
+    <t>Was the software sold for no consideration?</t>
+  </si>
+  <si>
+    <t>['Nor, I think, is there anything in the point that, since the name change only takes effect from 1 December 2006, it can be seen that the software was worthless because it was effectively sold for no consideration ie shares in a non-existent company.\n\nIf they do have a substantial value, then it follows that the software too must have had a substantial value at the time of the transaction (unless the transaction is some sort of sham or scam under which ISL has obtained valuable shares in Comodo holdings for no consideration).\n\nIf they do not have a substantial value, then it is reasonable to infer that the software did not have a substantial value either.']</t>
+  </si>
+  <si>
+    <t>['It is reasonable to infer that the software was sold for no consideration.']</t>
+  </si>
+  <si>
+    <t>What factors contribute to the complexity of a software copyright case?</t>
+  </si>
+  <si>
+    <t>["- It is plain that the infringement issue is capable of being factually complicated.\n- One could look at it once a year over a period of seven years.\n- There are, I think I am right in saying, six or seven platforms now being run by the defendants or possibly more so one can multiply the number of years by the number of platforms and say, well, one is looking at a good number of different versions of the system overall.\n- I then remind myself the case is not simply about the system overall but about individual programmes which make up the system.\n- However, in fact at the moment we do not know whether this case will be anything like as complicated as it might seem.\n- That will depend on the process of disclosure and rounds of pleadings which are inevitable in a software copyright case.\n- The sixth issue was a question of common design.\n- It is pleaded that all the defendants are liable as between the others, pursuant to a common design to commit the acts complained of.\n- Those issues can be factually complex and Mr. Abrahams submits it will be a complex question in this case.\n- Mr. Abrahams submits and I accept that his clients' software has changed significantly over time.\n- It will be necessary to get the various versions of the software out and see how the changes have gone.\n- Mr. Abrahams says that as a whole the claim is unsuitable for the Patents County Court.\n- Mr. Hicks says the claim is not as big and complicated as the defendants make out and as a fallback he presses the idea of a preliminary issue in relation to issue five, the ownership and licensing.\n- Still on the question of complexity Mr. Abrahams submits that this case has been run so far as if it is a High Court case."]</t>
+  </si>
+  <si>
+    <t>['Factors that contribute to the complexity of a software copyright case include the factual complexity of the infringement issue, the number of platforms involved, the number of different versions of the system, the individual programs that make up the system, the process of disclosure and rounds of pleadings, the question of common design, the significant changes in the software over time, and the suitability of the case for the Patents County Court.']</t>
+  </si>
+  <si>
+    <t>multi_context</t>
+  </si>
+  <si>
+    <t>What is the evidential test for obtaining a search order?</t>
+  </si>
+  <si>
+    <t>['- "To borrow a useful concept from the jurisprudence of the European Community, there must be proportionality between the perceived threat to the plaintiff’s rights and the remedy granted."\n- "The fact that there is overwhelming evidence that the defendant has behaved wrongfully in his commercial relationships does not necessarily justify an Anton Piller order."\n- "People whose commercial morality allows them to take a list of customers with whom they were in contact while employed will not necessarily disobey an order of the court requiring them to deliver it up."\n- "Not everyone who is misusing confidential information will destroy documents in the face of a court order requiring him to preserve them."\n- "However, Mr Penny says the test this is simply an evidential test which requires evidence of a real possibility that a defendant will disobey a lesser order, for example, for delivery up of computer equipment."\n- "It does not, he submits, require a finding of fact that the defendant would or would not have destroyed or hidden evidence."\n- "It follows, I consider, that the Court does not have to be satisfied before making a search order that the defendant actually would destroy evidence."\n- "An applicant must, nonetheless, consider whether a lesser form of order would be adequate."\n- "If there is no reason to think that a defendant would disobey an order, for instance for delivery up of a claimant’s property, then it would not be appropriate to seek to obtain a search order."']</t>
+  </si>
+  <si>
+    <t>['The evidential test for obtaining a search order is that there must be evidence of a real possibility that a defendant will disobey a lesser order. It does not require a finding of fact that the defendant would or would not destroy or hide evidence. The court does not have to be satisfied that the defendant actually would destroy evidence. However, the applicant must consider whether a lesser form of order would be adequate. If there is no reason to think that a defendant would disobey an order, then it would not be appropriate to seek a search order.']</t>
+  </si>
+  <si>
+    <t>In what situations should a lesser form of order be considered instead of a search order?</t>
+  </si>
+  <si>
+    <t>['- "Even in cases in which the plaintiff has strong evidence that an employee has taken what is undoubtedly specific confidential information, such as a list of customers, the court must employ a graduated response."\n- "The fact that there is overwhelming evidence that the defendant has behaved wrongfully in his commercial relationships does not necessarily justify an Anton Piller order."\n- "People whose commercial morality allows them to take a list of customers with whom they were in contact while employed will not necessarily disobey an order of the court requiring them to deliver it up."\n- "Not everyone who is misusing confidential information will destroy documents in the face of a court order requiring him to preserve them."\n- "However, Mr Penny says the test this is simply an evidential test which requires evidence of a real possibility that a defendant will disobey a lesser order, for example, for delivery up of computer equipment."\n- "An applicant must, nonetheless, consider whether a lesser form of order would be adequate."\n- "If there is no reason to think that a defendant would disobey an order, for instance for delivery up of a claimant’s property, then it would not be appropriate to seek to obtain a search order."']</t>
+  </si>
+  <si>
+    <t>["A lesser form of order should be considered instead of a search order in situations where there is no reason to believe that a defendant would disobey an order, such as for delivery up of a claimant's property."]</t>
+  </si>
+  <si>
+    <t>What principles govern disclosure in a search order application and how do they impact the order's outcome?</t>
+  </si>
+  <si>
+    <t>['- On any application for a search order there is a duty of full and fair disclosure imposed on an applicant.\n- A failure to observe that duty is liable to result in the order being discharged.\n- The claimant must make full and fair disclosure of all facts that are material for the judge to know in dealing with the application.\n- Materiality is to be decided by the court, not by the claimant or his legal advisers.\n- Proper inquiries must be made by the applicant before making the application to ensure that he is able to present all material facts.\n- The extent of the inquiries which will be held to be necessary depends on all the circumstances of the case.\n- If material non-disclosure is established, the court will be "astute to ensure" that a claimant who obtains an order without notice without making full disclosure is deprived of the advantage he may have derived as a result of his breach of duty.\n- Whether the non-disclosure is sufficiently material to justify or require the immediate discharge of the order without examination of the merits depends on the importance of the fact to the issues decided by the judge on the application.\n- The Court has a discretion, despite proof of material non-disclosure which justifies or requires the immediate discharge of the without notice order, nevertheless to continue the order or make a new order on terms.\n- The Court of Appeal warned against carrying the principle of material non-disclosure to extreme lengths.\n- The Court should take account of all the relevant circumstances, including the gravity of the breach, the excuse or explanation offered, and the severity and duration of the prejudice occasioned.']</t>
+  </si>
+  <si>
+    <t>['The principles that govern disclosure in a search order application require the applicant to make full and fair disclosure of all material facts to the court. The court, not the claimant or their legal advisers, determines what is considered material. The applicant must conduct proper inquiries to ensure they are able to present all material facts. If material non-disclosure is established, the court will be vigilant in ensuring that the claimant is deprived of any advantage gained from their breach of duty. Whether the non-disclosure justifies immediate discharge of the order depends on the importance of the fact to the issues decided by the judge. However, the court has discretion to continue the order or make a new order on terms, despite proof of material non-disclosure. The court should consider all relevant circumstances, including the gravity of the breach, the excuse or explanation offered, and the severity and duration of the prejudice caused. The Court of Appeal cautions against taking the principle of material non-disclosure to extreme lengths.']</t>
+  </si>
+  <si>
+    <t>What factors are considered as part of the copyright work in computer programs according to Jacob J in Ibcos Computers v Barclays Mercantile Highland?</t>
+  </si>
+  <si>
+    <t>['a. Matters such as program structure and design features may be considered as part of the copyright work in addition to the bits of code and specific program structure within an individual program.\nb. Individual programs as well as the overall program are capable of copyright protection if they were the result of work, skill and judgment.\nc. Copyright can exist in the source code of a computer program, provided it has sufficient originality.\nd. When deciding whether a substantial part of the work has been reproduced, consideration is not restricted to the text of the code, and issues of copying and substantiality can arise at various levels of abstraction, and accordingly the Court may look at program structure and design features.\ne. The unauthorized use of confidential source code may amount to a breach of confidence. In dealing with source code, it is to be noted that it often includes programmer comments and, in the words of Jacob J “is very important to anyone who wants to copy a program with modifications ….”\n24. In Cantor Fitzgerald v Tradition (UK) [2000] RPC 95, at paragraphs 76-79, Pumfrey J noted that it is generally accepted that the “architecture” of a computer program is capable of protection if a substantial part of the programmer’s skill, labour and judgment went into it, and the term “architecture” is capable of referring to the overall structure of the system at a very high level of abstraction including what was referred to in Ibcos as “program structure”.\n25. I agree with Mr Penny when he says that these authorities establish that unlawful “use” of software can take many forms, and, although such unlawful use includes, it is not limited to, the use or copying of all or part of source code. It is, therefore, at least strongly arguable that it would be unlawful for the Defendants to use ISL’s software (including the documentation describing the way in which the software functions) in the design of the architecture of all or part of Ssaneva’s new product or in the development of the high level or low level specifications for all or part of its new product, or in the coding or in any modifications to these various levels of design. I approach the present case on the basis that it is strongly arguable that the rights in respect of which ISL may seek protection are that wide. The case is not concerned simply with the copying and subsequent use of the source code as such.']</t>
+  </si>
+  <si>
+    <t>['The factors considered as part of the copyright work in computer programs, according to Jacob J in Ibcos Computers v Barclays Mercantile Highland, include program structure, design features, individual programs, overall program, source code, substantiality of reproduction, program architecture, and programmer comments.']</t>
+  </si>
+  <si>
+    <t>reasoning</t>
+  </si>
+  <si>
+    <t>How does the unauthorized use of confidential source code and the overall structure of the system at a high level of abstraction relate to the factors mentioned in the case?</t>
+  </si>
+  <si>
+    <t>['a. Matters such as program structure and design features may be considered as part of the copyright work in addition to the bits of code and specific program structure within an individual program.\nd. When deciding whether a substantial part of the work has been reproduced, consideration is not restricted to the text of the code, and issues of copying and substantiality can arise at various levels of abstraction, and accordingly the Court may look at program structure and design features.\ne. The unauthorized use of confidential source code may amount to a breach of confidence.\n24. It is generally accepted that the “architecture” of a computer program is capable of protection if a substantial part of the programmer’s skill, labour and judgment went into it, and the term “architecture” is capable of referring to the overall structure of the system at a very high level of abstraction including what was referred to in Ibcos as “program structure”.\n25. It is strongly arguable that it would be unlawful for the Defendants to use ISL’s software (including the documentation describing the way in which the software functions) in the design of the architecture of all or part of Ssaneva’s new product or in the development of the high level or low level specifications for all or part of its new product, or in the coding or in any modifications to these various levels of design.']</t>
+  </si>
+  <si>
+    <t>['The unauthorized use of confidential source code and the overall structure of the system at a high level of abstraction relate to the factors mentioned in the case because they are both considered as part of the copyright work. The court may look at program structure and design features when deciding whether a substantial part of the work has been reproduced. Additionally, the unauthorized use of confidential source code may amount to a breach of confidence.']</t>
+  </si>
+  <si>
+    <t>What factors should be considered when determining if a claim is appropriate for the Patents County Court?</t>
+  </si>
+  <si>
+    <t>["- '30. Pulling the various factors together, the points to consider are:-i) the financial position of the parties (s289(2) 1988 Act).\n- This includes but is not limited to considering whether a party can only afford to bring or defend the claim in a Patents County Court (para 9.1(1) Practice Direction 30).\n- The Patents County Court was set up to assist small and medium sized enterprises in enforcing and litigating intellectual property disputes.\n- ii) whether the claim is appropriate to be determined by a Patents County Court.\n- This involves considering:a) the value of the claim, including the value of an injunction and the amount in dispute. (Para 9.1(2)(a) Practice Direction 30 and CPR 30.3(a))b) the complexity of the issues (para 9.1(2)(b) Practice Direction 30 and CPR 30.3(d))c) the estimated length of the trial. (Para 9.1(2)(c) Practice Direction 30).\n- Related to this is CPR 30.3(b) - whether it would be more convenient or fair for hearings (including the trial) to be held in some other court.\n- iii) the importance of the outcome of the claim to the public in general (CPR 30.3(e)) albeit that a case raising an important question of fact or law need not necessarily be transferred to the Patents Court (s289(2) 1988 Act).\n- 32. Once those factors are considered I must bear in mind what sort of cases the Patents County Court was established to handle and that its role is to provide cheaper, speedier and more informal procedures to ensure that small and medium sized enterprises, and private individuals, were not deterred from innovation by the potential cost of litigation to safeguard their rights."]</t>
+  </si>
+  <si>
+    <t>['The factors that should be considered when determining if a claim is appropriate for the Patents County Court are:\n1. The financial position of the parties, including whether a party can only afford to bring or defend the claim in a Patents County Court.\n2. Whether the claim is appropriate to be determined by a Patents County Court, which includes considering the value of the claim, the complexity of the issues, and the estimated length of the trial.\n3. Whether it would be more convenient or fair for hearings to be held in some other court.\n4. The importance of the outcome of the claim to the public in general, although a case raising an important question of fact or law may not necessarily be transferred to the Patents Court.\n5. The purpose of the Patents County Court, which is to provide cheaper, speedier, and more informal procedures to ensure that small and medium-sized enterprises, and private individuals, are not deterred from innovation by the potential cost of litigation to safeguard their rights.']</t>
+  </si>
+  <si>
+    <t>Is the preliminary issue suitable for the Patents County Court?</t>
+  </si>
+  <si>
+    <t>['36. On the other hand, it seems to me the preliminary issue in this case is plainly a case which could be done using the PCC procedures.\n37. Mr. Abrahams says it would still be complicated and there would need to be disclosure of internal documents in order to understand the context.\n38. Overall, where does complexity leave us? This case overall may be too large and complicated to fit into the Patents County Court.\n39. What about the length of trial and the overall administration of justice? Well, I have already said that the ownership issue is a matter which can be done in two days. Overall the cases may well take more and it will require significant management.\n40. What about the importance of the outcome? I recognise the case is important to the defendants but this case does not raise important general questions of law or fact which have a wider public importance.']</t>
+  </si>
+  <si>
+    <t>['No, the preliminary issue is not suitable for the Patents County Court.']</t>
+  </si>
+  <si>
+    <t>What are the four pre-conditions for granting a search order, taking into account the potential harm to the respondent and the strength of the prima facie case?</t>
+  </si>
+  <si>
+    <t>['- "Thirdly, since the defendant may be entitled to damages for any loss sustained as a result of the search order, if it turns out to have been wrongly granted, the claimant must give an undertaking in damages, which (depending on the financial status of the claimant) may be required to be supported by some form of security."\n- "Fourthly, the search order must contain a number of safeguards for the defendant, which have been laid down by the authorities (see particularly Columbia Picture Industries Inc v Robinson [ 1 9 8 7 ]  C h  3 8  a n d  Universal Thermosensors v Hibben [1992] I WLR 840) and the CPR (eg by 25PD.7-12) and which are now incorporated in the standard form of Search Order (reproduced at 25PD 13)."\n- "There are four pre-conditions identified by Mr Penny (and I think that this is equally uncontroversial) which are established by the authorities (in particular Anton Piller and Lock International plc v Beswick) before the Court will ordinarily exercise its power to grant a search order."\n- "a.There must be an extremely strong prima facie case (a requirement which must be viewed with some flexibility)."\n- "b.The damage, potential or actual, must be very serious for the applicant."\n- "c.There must be clear evidence that the defendants have in their possession incriminating documents or things and that there is a real possibility that the defendants may destroy such material before an on notice application is made."\n- "d.The harm likely to be caused by the execution of the search order on the respondent and his business affairs must not be out of proportion to the legitimate object of the order."']</t>
+  </si>
+  <si>
+    <t>['The four pre-conditions for granting a search order, taking into account the potential harm to the respondent and the strength of the prima facie case, are:\n\n1. There must be an extremely strong prima facie case.\n2. The damage, potential or actual, must be very serious for the applicant.\n3. There must be clear evidence that the defendants have incriminating documents or things in their possession, and there is a real possibility that they may destroy such material before an on notice application is made.\n4. The harm likely to be caused by the execution of the search order on the respondent and their business affairs must not be out of proportion to the legitimate object of the order.']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +193,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,341 +517,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ground_truth_context</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ground_truth</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>question_type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>episode_done</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>What factors are considered when determining whether a preliminary issue should be ordered?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>["48.Factor (e) was whether the determination of preliminary issue would unreasonably fetter either the parties or the court in achieving a just result.\n49.Factor (f) was the risk that an order will increase the costs or delay the trial and the prospects of an order may assist settlement.\n50.Factor (g) is the point that the more likely it is that the issue will have to be determined by the court the more appropriate it is to have it determined as a preliminary issue.\n51.Factor (h): the risk that the determination may lose its effect by subsequent amendments to the statement of case.\n52.Factor (i): whether it is just and right to order the determination of a preliminary issue.\n53.It seems to me, bearing all those factors in mind, irrespective of whether this was a case in the High Court or the PCC, the preliminary issue which has been proposed by the claimant would be appropriate.\n54.The other factor I bear in mind which is extremely important is access to justice.\n55.The other issues in Mr. Abrahams's list may never arise or they may need to go to the High Court rather than the PCC.\n56.What happens to the costs cap in a preliminary issue case?"]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['The factors considered when determining whether a preliminary issue should be ordered include: \n- Whether the determination of the preliminary issue would unreasonably fetter either the parties or the court in achieving a just result.\n- The risk that an order will increase the costs or delay the trial and the prospects of an order may assist settlement.\n- The likelihood that the issue will have to be determined by the court.\n- The risk that the determination may lose its effect by subsequent amendments to the statement of case.\n- Whether it is just and right to order the determination of a preliminary issue.\n- The importance of access to justice.\n- The possibility that other issues may arise or need to go to a different court.']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>What are the four pre-conditions for granting a search order, taking into account the potential harm to the respondent's business and the need for a strong prima facie case?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['- "There are four pre-conditions identified by Mr Penny (and I think that this is equally uncontroversial) which are established by the authorities (in particular Anton Piller and Lock International plc v Beswick) before the Court will ordinarily exercise its power to grant a search order."\n- "a. There must be an extremely strong prima facie case (a requirement which must be viewed with some flexibility)."\n- "b. The damage, potential or actual, must be very serious for the applicant."\n- "c. There must be clear evidence that the defendants have in their possession incriminating documents or things and that there is a real possibility that the defendants may destroy such material before an on notice application is made."\n- "d. The harm likely to be caused by the execution of the search order on the respondent and his business affairs must not be out of proportion to the legitimate object of the order."']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>["The four pre-conditions for granting a search order, taking into account the potential harm to the respondent's business and the need for a strong prima facie case, are:\n\na. There must be an extremely strong prima facie case.\nb. The damage, potential or actual, must be very serious for the applicant.\nc. There must be clear evidence that the defendants have incriminating documents or things in their possession, and there is a real possibility of them destroying such material before an on notice application is made.\nd. The harm likely to be caused by the execution of the search order on the respondent and their business affairs must not be out of proportion to the legitimate object of the order."]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Was the software sold for no consideration?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['Nor, I think, is there anything in the point that, since the name change only takes effect from 1 December 2006, it can be seen that the software was worthless because it was effectively sold for no consideration ie shares in a non-existent company.\n\nIf they do have a substantial value, then it follows that the software too must have had a substantial value at the time of the transaction (unless the transaction is some sort of sham or scam under which ISL has obtained valuable shares in Comodo holdings for no consideration).\n\nIf they do not have a substantial value, then it is reasonable to infer that the software did not have a substantial value either.']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['It is reasonable to infer that the software was sold for no consideration.']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>What factors contribute to the complexity of a software copyright case?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>["- It is plain that the infringement issue is capable of being factually complicated.\n- One could look at it once a year over a period of seven years.\n- There are, I think I am right in saying, six or seven platforms now being run by the defendants or possibly more so one can multiply the number of years by the number of platforms and say, well, one is looking at a good number of different versions of the system overall.\n- I then remind myself the case is not simply about the system overall but about individual programmes which make up the system.\n- However, in fact at the moment we do not know whether this case will be anything like as complicated as it might seem.\n- That will depend on the process of disclosure and rounds of pleadings which are inevitable in a software copyright case.\n- The sixth issue was a question of common design.\n- It is pleaded that all the defendants are liable as between the others, pursuant to a common design to commit the acts complained of.\n- Those issues can be factually complex and Mr. Abrahams submits it will be a complex question in this case.\n- Mr. Abrahams submits and I accept that his clients' software has changed significantly over time.\n- It will be necessary to get the various versions of the software out and see how the changes have gone.\n- Mr. Abrahams says that as a whole the claim is unsuitable for the Patents County Court.\n- Mr. Hicks says the claim is not as big and complicated as the defendants make out and as a fallback he presses the idea of a preliminary issue in relation to issue five, the ownership and licensing.\n- Still on the question of complexity Mr. Abrahams submits that this case has been run so far as if it is a High Court case."]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['Factors that contribute to the complexity of a software copyright case include the factual complexity of the infringement issue, the number of platforms involved, the number of different versions of the system, the individual programs that make up the system, the process of disclosure and rounds of pleadings, the question of common design, the significant changes in the software over time, and the suitability of the case for the Patents County Court.']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>multi_context</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>What is the evidential test for obtaining a search order?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['- "To borrow a useful concept from the jurisprudence of the European Community, there must be proportionality between the perceived threat to the plaintiff’s rights and the remedy granted."\n- "The fact that there is overwhelming evidence that the defendant has behaved wrongfully in his commercial relationships does not necessarily justify an Anton Piller order."\n- "People whose commercial morality allows them to take a list of customers with whom they were in contact while employed will not necessarily disobey an order of the court requiring them to deliver it up."\n- "Not everyone who is misusing confidential information will destroy documents in the face of a court order requiring him to preserve them."\n- "However, Mr Penny says the test this is simply an evidential test which requires evidence of a real possibility that a defendant will disobey a lesser order, for example, for delivery up of computer equipment."\n- "It does not, he submits, require a finding of fact that the defendant would or would not have destroyed or hidden evidence."\n- "It follows, I consider, that the Court does not have to be satisfied before making a search order that the defendant actually would destroy evidence."\n- "An applicant must, nonetheless, consider whether a lesser form of order would be adequate."\n- "If there is no reason to think that a defendant would disobey an order, for instance for delivery up of a claimant’s property, then it would not be appropriate to seek to obtain a search order."']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['The evidential test for obtaining a search order is that there must be evidence of a real possibility that a defendant will disobey a lesser order. It does not require a finding of fact that the defendant would or would not destroy or hide evidence. The court does not have to be satisfied that the defendant actually would destroy evidence. However, the applicant must consider whether a lesser form of order would be adequate. If there is no reason to think that a defendant would disobey an order, then it would not be appropriate to seek a search order.']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>In what situations should a lesser form of order be considered instead of a search order?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>['- "Even in cases in which the plaintiff has strong evidence that an employee has taken what is undoubtedly specific confidential information, such as a list of customers, the court must employ a graduated response."\n- "The fact that there is overwhelming evidence that the defendant has behaved wrongfully in his commercial relationships does not necessarily justify an Anton Piller order."\n- "People whose commercial morality allows them to take a list of customers with whom they were in contact while employed will not necessarily disobey an order of the court requiring them to deliver it up."\n- "Not everyone who is misusing confidential information will destroy documents in the face of a court order requiring him to preserve them."\n- "However, Mr Penny says the test this is simply an evidential test which requires evidence of a real possibility that a defendant will disobey a lesser order, for example, for delivery up of computer equipment."\n- "An applicant must, nonetheless, consider whether a lesser form of order would be adequate."\n- "If there is no reason to think that a defendant would disobey an order, for instance for delivery up of a claimant’s property, then it would not be appropriate to seek to obtain a search order."']</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>["A lesser form of order should be considered instead of a search order in situations where there is no reason to believe that a defendant would disobey an order, such as for delivery up of a claimant's property."]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>What principles govern disclosure in a search order application and how do they impact the order's outcome?</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['- On any application for a search order there is a duty of full and fair disclosure imposed on an applicant.\n- A failure to observe that duty is liable to result in the order being discharged.\n- The claimant must make full and fair disclosure of all facts that are material for the judge to know in dealing with the application.\n- Materiality is to be decided by the court, not by the claimant or his legal advisers.\n- Proper inquiries must be made by the applicant before making the application to ensure that he is able to present all material facts.\n- The extent of the inquiries which will be held to be necessary depends on all the circumstances of the case.\n- If material non-disclosure is established, the court will be "astute to ensure" that a claimant who obtains an order without notice without making full disclosure is deprived of the advantage he may have derived as a result of his breach of duty.\n- Whether the non-disclosure is sufficiently material to justify or require the immediate discharge of the order without examination of the merits depends on the importance of the fact to the issues decided by the judge on the application.\n- The Court has a discretion, despite proof of material non-disclosure which justifies or requires the immediate discharge of the without notice order, nevertheless to continue the order or make a new order on terms.\n- The Court of Appeal warned against carrying the principle of material non-disclosure to extreme lengths.\n- The Court should take account of all the relevant circumstances, including the gravity of the breach, the excuse or explanation offered, and the severity and duration of the prejudice occasioned.']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['The principles that govern disclosure in a search order application require the applicant to make full and fair disclosure of all material facts to the court. The court, not the claimant or their legal advisers, determines what is considered material. The applicant must conduct proper inquiries to ensure they are able to present all material facts. If material non-disclosure is established, the court will be vigilant in ensuring that the claimant is deprived of any advantage gained from their breach of duty. Whether the non-disclosure justifies immediate discharge of the order depends on the importance of the fact to the issues decided by the judge. However, the court has discretion to continue the order or make a new order on terms, despite proof of material non-disclosure. The court should consider all relevant circumstances, including the gravity of the breach, the excuse or explanation offered, and the severity and duration of the prejudice caused. The Court of Appeal cautions against taking the principle of material non-disclosure to extreme lengths.']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>What factors are considered as part of the copyright work in computer programs according to Jacob J in Ibcos Computers v Barclays Mercantile Highland?</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>['a. Matters such as program structure and design features may be considered as part of the copyright work in addition to the bits of code and specific program structure within an individual program.\nb. Individual programs as well as the overall program are capable of copyright protection if they were the result of work, skill and judgment.\nc. Copyright can exist in the source code of a computer program, provided it has sufficient originality.\nd. When deciding whether a substantial part of the work has been reproduced, consideration is not restricted to the text of the code, and issues of copying and substantiality can arise at various levels of abstraction, and accordingly the Court may look at program structure and design features.\ne. The unauthorized use of confidential source code may amount to a breach of confidence. In dealing with source code, it is to be noted that it often includes programmer comments and, in the words of Jacob J “is very important to anyone who wants to copy a program with modifications ….”\n24. In Cantor Fitzgerald v Tradition (UK) [2000] RPC 95, at paragraphs 76-79, Pumfrey J noted that it is generally accepted that the “architecture” of a computer program is capable of protection if a substantial part of the programmer’s skill, labour and judgment went into it, and the term “architecture” is capable of referring to the overall structure of the system at a very high level of abstraction including what was referred to in Ibcos as “program structure”.\n25. I agree with Mr Penny when he says that these authorities establish that unlawful “use” of software can take many forms, and, although such unlawful use includes, it is not limited to, the use or copying of all or part of source code. It is, therefore, at least strongly arguable that it would be unlawful for the Defendants to use ISL’s software (including the documentation describing the way in which the software functions) in the design of the architecture of all or part of Ssaneva’s new product or in the development of the high level or low level specifications for all or part of its new product, or in the coding or in any modifications to these various levels of design. I approach the present case on the basis that it is strongly arguable that the rights in respect of which ISL may seek protection are that wide. The case is not concerned simply with the copying and subsequent use of the source code as such.']</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['The factors considered as part of the copyright work in computer programs, according to Jacob J in Ibcos Computers v Barclays Mercantile Highland, include program structure, design features, individual programs, overall program, source code, substantiality of reproduction, program architecture, and programmer comments.']</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>How does the unauthorized use of confidential source code and the overall structure of the system at a high level of abstraction relate to the factors mentioned in the case?</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>['a. Matters such as program structure and design features may be considered as part of the copyright work in addition to the bits of code and specific program structure within an individual program.\nd. When deciding whether a substantial part of the work has been reproduced, consideration is not restricted to the text of the code, and issues of copying and substantiality can arise at various levels of abstraction, and accordingly the Court may look at program structure and design features.\ne. The unauthorized use of confidential source code may amount to a breach of confidence.\n24. It is generally accepted that the “architecture” of a computer program is capable of protection if a substantial part of the programmer’s skill, labour and judgment went into it, and the term “architecture” is capable of referring to the overall structure of the system at a very high level of abstraction including what was referred to in Ibcos as “program structure”.\n25. It is strongly arguable that it would be unlawful for the Defendants to use ISL’s software (including the documentation describing the way in which the software functions) in the design of the architecture of all or part of Ssaneva’s new product or in the development of the high level or low level specifications for all or part of its new product, or in the coding or in any modifications to these various levels of design.']</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['The unauthorized use of confidential source code and the overall structure of the system at a high level of abstraction relate to the factors mentioned in the case because they are both considered as part of the copyright work. The court may look at program structure and design features when deciding whether a substantial part of the work has been reproduced. Additionally, the unauthorized use of confidential source code may amount to a breach of confidence.']</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>What factors should be considered when determining if a claim is appropriate for the Patents County Court?</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>["- '30. Pulling the various factors together, the points to consider are:-i) the financial position of the parties (s289(2) 1988 Act).\n- This includes but is not limited to considering whether a party can only afford to bring or defend the claim in a Patents County Court (para 9.1(1) Practice Direction 30).\n- The Patents County Court was set up to assist small and medium sized enterprises in enforcing and litigating intellectual property disputes.\n- ii) whether the claim is appropriate to be determined by a Patents County Court.\n- This involves considering:a) the value of the claim, including the value of an injunction and the amount in dispute. (Para 9.1(2)(a) Practice Direction 30 and CPR 30.3(a))b) the complexity of the issues (para 9.1(2)(b) Practice Direction 30 and CPR 30.3(d))c) the estimated length of the trial. (Para 9.1(2)(c) Practice Direction 30).\n- Related to this is CPR 30.3(b) - whether it would be more convenient or fair for hearings (including the trial) to be held in some other court.\n- iii) the importance of the outcome of the claim to the public in general (CPR 30.3(e)) albeit that a case raising an important question of fact or law need not necessarily be transferred to the Patents Court (s289(2) 1988 Act).\n- 32. Once those factors are considered I must bear in mind what sort of cases the Patents County Court was established to handle and that its role is to provide cheaper, speedier and more informal procedures to ensure that small and medium sized enterprises, and private individuals, were not deterred from innovation by the potential cost of litigation to safeguard their rights."]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['The factors that should be considered when determining if a claim is appropriate for the Patents County Court are:\n1. The financial position of the parties, including whether a party can only afford to bring or defend the claim in a Patents County Court.\n2. Whether the claim is appropriate to be determined by a Patents County Court, which includes considering the value of the claim, the complexity of the issues, and the estimated length of the trial.\n3. Whether it would be more convenient or fair for hearings to be held in some other court.\n4. The importance of the outcome of the claim to the public in general, although a case raising an important question of fact or law may not necessarily be transferred to the Patents Court.\n5. The purpose of the Patents County Court, which is to provide cheaper, speedier, and more informal procedures to ensure that small and medium-sized enterprises, and private individuals, are not deterred from innovation by the potential cost of litigation to safeguard their rights.']</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Is the preliminary issue suitable for the Patents County Court?</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>['36. On the other hand, it seems to me the preliminary issue in this case is plainly a case which could be done using the PCC procedures.\n37. Mr. Abrahams says it would still be complicated and there would need to be disclosure of internal documents in order to understand the context.\n38. Overall, where does complexity leave us? This case overall may be too large and complicated to fit into the Patents County Court.\n39. What about the length of trial and the overall administration of justice? Well, I have already said that the ownership issue is a matter which can be done in two days. Overall the cases may well take more and it will require significant management.\n40. What about the importance of the outcome? I recognise the case is important to the defendants but this case does not raise important general questions of law or fact which have a wider public importance.']</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['No, the preliminary issue is not suitable for the Patents County Court.']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>What are the four pre-conditions for granting a search order, taking into account the potential harm to the respondent and the strength of the prima facie case?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>['- "Thirdly, since the defendant may be entitled to damages for any loss sustained as a result of the search order, if it turns out to have been wrongly granted, the claimant must give an undertaking in damages, which (depending on the financial status of the claimant) may be required to be supported by some form of security."\n- "Fourthly, the search order must contain a number of safeguards for the defendant, which have been laid down by the authorities (see particularly Columbia Picture Industries Inc v Robinson [ 1 9 8 7 ]  C h  3 8  a n d  Universal Thermosensors v Hibben [1992] I WLR 840) and the CPR (eg by 25PD.7-12) and which are now incorporated in the standard form of Search Order (reproduced at 25PD 13)."\n- "There are four pre-conditions identified by Mr Penny (and I think that this is equally uncontroversial) which are established by the authorities (in particular Anton Piller and Lock International plc v Beswick) before the Court will ordinarily exercise its power to grant a search order."\n- "a.There must be an extremely strong prima facie case (a requirement which must be viewed with some flexibility)."\n- "b.The damage, potential or actual, must be very serious for the applicant."\n- "c.There must be clear evidence that the defendants have in their possession incriminating documents or things and that there is a real possibility that the defendants may destroy such material before an on notice application is made."\n- "d.The harm likely to be caused by the execution of the search order on the respondent and his business affairs must not be out of proportion to the legitimate object of the order."']</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['The four pre-conditions for granting a search order, taking into account the potential harm to the respondent and the strength of the prima facie case, are:\n\n1. There must be an extremely strong prima facie case.\n2. The damage, potential or actual, must be very serious for the applicant.\n3. There must be clear evidence that the defendants have incriminating documents or things in their possession, and there is a real possibility that they may destroy such material before an on notice application is made.\n4. The harm likely to be caused by the execution of the search order on the respondent and their business affairs must not be out of proportion to the legitimate object of the order.']</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>conditional</t>
-        </is>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
